--- a/patient_data/patient_91.xlsx
+++ b/patient_data/patient_91.xlsx
@@ -634,13 +634,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -684,40 +684,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="R4" t="n">
         <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -761,40 +761,40 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="R5" t="n">
         <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -838,40 +838,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="R6" t="n">
         <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -915,40 +915,40 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="R7" t="n">
         <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -992,40 +992,40 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
